--- a/public/pdfs/Materiales por estructura.xlsx
+++ b/public/pdfs/Materiales por estructura.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfala\workspace\meteor\proyelec.io\public\pdfs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T Constructivos - Materiales" sheetId="1" r:id="rId1"/>
     <sheet name="Materiales" sheetId="2" r:id="rId2"/>
+    <sheet name="T Constructivos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Materiales!$A$1:$B$128</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="419">
   <si>
     <t>Tipo Constructivo</t>
   </si>
@@ -504,9 +500,6 @@
     <t>File</t>
   </si>
   <si>
-    <t>Abrasaderas lisas</t>
-  </si>
-  <si>
     <t>Abrazaderas con escote</t>
   </si>
   <si>
@@ -1162,16 +1155,142 @@
   </si>
   <si>
     <t>MAT0131</t>
+  </si>
+  <si>
+    <t>Clavos U</t>
+  </si>
+  <si>
+    <t>Abrazaderas lisas</t>
+  </si>
+  <si>
+    <t>Tipos Constructivos</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Coplanar Horizontal H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Coplanar Horizontal Madera/H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Canadiense Madera</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Canadiense H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Canadiense Madera/H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Triangular Asim H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Coplanar Vertical H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Coplanar Horizontal Madera</t>
+  </si>
+  <si>
+    <t>LMT 33kV Coplanar Horizontal H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Coplanar Horizontal Madera/H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Canadiense Madera</t>
+  </si>
+  <si>
+    <t>LMT 33kV Canadiense H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Canadiense Madera/H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Triangular Asim H°A°</t>
+  </si>
+  <si>
+    <t>LMT 33kV Coplanar Vertical H°A°</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Compacta</t>
+  </si>
+  <si>
+    <t>LMT 33kV Compacta</t>
+  </si>
+  <si>
+    <t>LMT13CHM</t>
+  </si>
+  <si>
+    <t>LMT13CHH</t>
+  </si>
+  <si>
+    <t>LMT13CHMH</t>
+  </si>
+  <si>
+    <t>LMT13CanM</t>
+  </si>
+  <si>
+    <t>LMT13CanH</t>
+  </si>
+  <si>
+    <t>LMT13CanMH</t>
+  </si>
+  <si>
+    <t>LMT13TrianAH</t>
+  </si>
+  <si>
+    <t>LMT13CVH</t>
+  </si>
+  <si>
+    <t>LMT13Comp</t>
+  </si>
+  <si>
+    <t>LMT33CHM</t>
+  </si>
+  <si>
+    <t>LMT33CHH</t>
+  </si>
+  <si>
+    <t>LMT33CHMH</t>
+  </si>
+  <si>
+    <t>LMT33CanM</t>
+  </si>
+  <si>
+    <t>LMT33CanH</t>
+  </si>
+  <si>
+    <t>LMT33CanMH</t>
+  </si>
+  <si>
+    <t>LMT33TrianAH</t>
+  </si>
+  <si>
+    <t>LMT33CVH</t>
+  </si>
+  <si>
+    <t>LMT33Comp</t>
+  </si>
+  <si>
+    <t>LMT 13,2kV Doble Terna H°A°</t>
+  </si>
+  <si>
+    <t>LMT13DTH</t>
+  </si>
+  <si>
+    <t>LMT 33kV Doble Terna H°A°</t>
+  </si>
+  <si>
+    <t>LMT33DTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,11 +1445,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,29 +1800,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,10 +1830,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1726,7 +1845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>VLOOKUP(C3,Materiales!A1:B203,2,0)</f>
@@ -1750,11 +1869,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="17"/>
       <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(C4,Materiales!A2:B204,2,0)</f>
@@ -1770,11 +1889,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP(C5,Materiales!A3:B205,2,0)</f>
@@ -1790,11 +1909,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP(C6,Materiales!A4:B206,2,0)</f>
@@ -1810,11 +1929,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP(C7,Materiales!A5:B207,2,0)</f>
@@ -1830,11 +1949,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP(C8,Materiales!A6:B208,2,0)</f>
@@ -1850,11 +1969,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP(C9,Materiales!A7:B209,2,0)</f>
@@ -1870,11 +1989,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>VLOOKUP(C10,Materiales!A8:B210,2,0)</f>
@@ -1890,11 +2009,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>VLOOKUP(C11,Materiales!A9:B211,2,0)</f>
@@ -1910,11 +2029,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>VLOOKUP(C12,Materiales!A10:B212,2,0)</f>
@@ -1930,11 +2049,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>VLOOKUP(C13,Materiales!A11:B213,2,0)</f>
@@ -1950,11 +2069,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="17"/>
       <c r="B14" s="20"/>
       <c r="C14" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>VLOOKUP(C14,Materiales!A12:B214,2,0)</f>
@@ -1970,7 +2089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="16" t="s">
         <v>30</v>
@@ -1990,7 +2109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="5"/>
@@ -2008,7 +2127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="5"/>
@@ -2026,7 +2145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="5"/>
@@ -2044,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="5"/>
@@ -2062,7 +2181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="5"/>
@@ -2080,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="5"/>
@@ -2098,7 +2217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="5"/>
@@ -2116,7 +2235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="5"/>
@@ -2134,7 +2253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="5"/>
@@ -2152,7 +2271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="5"/>
@@ -2170,7 +2289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="5"/>
@@ -2188,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="5"/>
@@ -2206,7 +2325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="5"/>
@@ -2224,7 +2343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="5"/>
@@ -2242,7 +2361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="5"/>
@@ -2260,7 +2379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="5"/>
@@ -2278,7 +2397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="6"/>
@@ -2296,10 +2415,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="17"/>
       <c r="B33" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="e">
@@ -2307,15 +2426,15 @@
         <v>#N/A</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="17"/>
       <c r="B34" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="e">
@@ -2323,15 +2442,15 @@
         <v>#N/A</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="17"/>
       <c r="B35" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="e">
@@ -2344,10 +2463,10 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="e">
@@ -2355,15 +2474,15 @@
         <v>#N/A</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="17"/>
       <c r="B37" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="e">
@@ -2371,15 +2490,15 @@
         <v>#N/A</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="17"/>
       <c r="B38" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5" t="e">
@@ -2392,10 +2511,10 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="17"/>
       <c r="B39" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="5" t="e">
@@ -2403,15 +2522,15 @@
         <v>#N/A</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="18"/>
       <c r="B40" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="e">
@@ -2419,7 +2538,7 @@
         <v>#N/A</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2435,28 +2554,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2465,22 +2584,22 @@
         <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D33" si="0">"Materials.insert({'nombre': '"&amp;B2&amp;"', 'file': '"&amp;C2&amp;"'})"</f>
@@ -2491,15 +2610,15 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2510,354 +2629,354 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Abrazadera con escote Ø160mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Abrazadera con escote Ø180mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Abrazadera con escote Ø210mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø210mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø210mm c/bulón 1/2"', 'file': 'Abrazaderas lisas'})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø235mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø235mm c/bulón 1/2"', 'file': 'Abrazaderas lisas'})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251a Ø171mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251a Ø171mm c/bulón 1/2"', 'file': 'Abrazaderas lisas'})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251b Ø185mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251b Ø185mm c/bulón 1/2"', 'file': 'Abrazaderas lisas'})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251d Ø315mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251d Ø315mm c/bulón 1/2"', 'file': 'Abrazaderas lisas'})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
         <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador MN11 13,2kV', 'file': 'Aislador MN11'})</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
         <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador MN12 33kV', 'file': 'Aislador MN12'})</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador MN14 33kV', 'file': 'Aislador MN14'})</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
         <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador MN3a 13,2kV', 'file': 'Aislador MN3a'})</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
         <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador polimerico 13,2kV', 'file': 'Aislador polimérico Suspensión-Retención'})</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Aislador polimerico 33kV', 'file': 'Aislador polimérico Suspensión-Retención'})</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
         <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Anillo Badajo MN384', 'file': 'Anillo Badajo'})</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Arandela Grower MN32a 22mm x 1/2"', 'file': 'Arandelas Grower'})</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Arandela Grower MN32b 26,4mm x 5/8"', 'file': 'Arandelas Grower'})</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Arandela Grower MN32c 31,5mm x 3/4"', 'file': 'Arandelas Grower'})</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Arandela Plana MN30 32mm x 1/2"', 'file': 'Arandelas planas'})</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Arandela Plana MN31 40mm x 5/8"', 'file': 'Arandelas planas'})</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s">
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Base H°G° para abulonar', 'file': 'Base HG para abulonar'})</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Base H°G° para empotrar', 'file': 'Base HG para empotrar'})</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
         <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Base H°G° para madera', 'file': 'Base HG para madera'})</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
         <v>135</v>
@@ -2870,9 +2989,9 @@
         <v>Materials.insert({'nombre': 'Bloquete MN1101a Acero 50mm', 'file': 'Bloquete'})</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
         <v>136</v>
@@ -2885,9 +3004,9 @@
         <v>Materials.insert({'nombre': 'Bloquete MN1101b Latón 50mm', 'file': 'Bloquete'})</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
@@ -2900,564 +3019,564 @@
         <v>Materials.insert({'nombre': 'Bloquete MN1101c Latón 80mm', 'file': 'Bloquete'})</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Brazo Diagonal MN42 1500mm x 1/2"', 'file': 'Brazo diagonal'})</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Brazo Diagonal MN42a 1500mm x 18mm', 'file': 'Brazo diagonal'})</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Brazo Doble MN43 1500mm x 1/2"', 'file': 'Brazo Doble'})</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>Materials.insert({'nombre': 'Brazo Doble MN43a 1500mm x 18mm', 'file': 'Brazo Doble'})</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D66" si="1">"Materials.insert({'nombre': '"&amp;B34&amp;"', 'file': '"&amp;C34&amp;"'})"</f>
         <v>Materials.insert({'nombre': 'Brazo Recto MN40 1016mm', 'file': 'Brazos rectos'})</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Brazo Recto MN41 710mm', 'file': 'Brazos rectos'})</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Brazo Soporte MN44 1400mm x 1/2"', 'file': 'Brazo Soporte'})</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Brazo Soporte MN44a 1400mm x 18mm', 'file': 'Brazo Soporte'})</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN48 1/2" x 38mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN48a 3/8" x 25mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN49 1/2" x 127mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN50 1/2" x 178mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN51 1/2" x 203mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN52 1/2" x 254mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN53 5/8" x 203mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN54 5/8" x 254mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN55 5/8" x 305mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN56 5/8" x 356mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN57 5/8" x 406mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN58 5/8" x 457mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN59 1/2" x 64mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN59a 1/2" x 70mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN60 1/2" x 89mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN61 3/4" x 356mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN62 3/4" x 406mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN63 3/4" x 457mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
         <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN64 5/8" x 89mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
         <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN64a 5/8" x 110mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" t="s">
         <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Bulón MN66 5/8" x 152mm', 'file': 'Bulones'})</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Cable de Acero MN100 6mm', 'file': 'Cable de acero'})</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Cable de Acero MN101', 'file': 'Cable de acero'})</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" t="s">
         <v>373</v>
-      </c>
-      <c r="C61" t="s">
-        <v>374</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Conductor de CU 50mm2', 'file': 'Conductor cobre'})</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
         <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Chapa Cuadrada MN83 75mm x 28mm', 'file': 'Chapa Cuadrada'})</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
         <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Chapa Cuadrada MN84 50mm x 20mm', 'file': 'Chapa Cuadrada'})</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Chapa Freno MN88 Ø14mm', 'file': 'Chapa Freno'})</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Chapa Freno MN88a Ø17mm', 'file': 'Chapa Freno'})</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
         <v>Materials.insert({'nombre': 'Chapa Freno MN88b Ø20mm', 'file': 'Chapa Freno'})</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
@@ -3466,21 +3585,28 @@
         <v>133</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67" si="2">"Materials.insert({'nombre': '"&amp;B67&amp;"', 'file': '"&amp;C67&amp;"'})"</f>
+        <f t="shared" ref="D67:D68" si="2">"Materials.insert({'nombre': '"&amp;B67&amp;"', 'file': '"&amp;C67&amp;"'})"</f>
         <v>Materials.insert({'nombre': 'Chapa NC3', 'file': 'Chapa NC3'})</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>Materials.insert({'nombre': 'Clavos "U"', 'file': 'Clavos U'})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
@@ -3493,759 +3619,759 @@
         <v>Materials.insert({'nombre': 'Conector PAT', 'file': 'Conector PAT'})</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
         <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta Canadiense 13,2kV', 'file': 'Cruceta Canadiense 13kV'})</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
         <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta Canadiense 33kV', 'file': 'Cruceta Canadiense 13kV'})</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
+        <v>355</v>
+      </c>
+      <c r="C72" t="s">
         <v>356</v>
-      </c>
-      <c r="C72" t="s">
-        <v>357</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN107 3000mm Madera', 'file': 'Cruceta MN107 madera'})</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" t="s">
         <v>358</v>
-      </c>
-      <c r="C73" t="s">
-        <v>359</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN107 3000mm Metal', 'file': 'Cruceta MN107 metal'})</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" t="s">
         <v>360</v>
-      </c>
-      <c r="C74" t="s">
-        <v>361</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN109 1820mm Madera', 'file': 'Cruceta MN109 madera'})</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" t="s">
         <v>362</v>
-      </c>
-      <c r="C75" t="s">
-        <v>363</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN110 1820mm Madera', 'file': 'Cruceta MN110 madera'})</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" t="s">
         <v>366</v>
-      </c>
-      <c r="C76" t="s">
-        <v>367</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN110 2440mm Metal', 'file': 'Cruceta MN110 metal'})</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" t="s">
         <v>364</v>
-      </c>
-      <c r="C77" t="s">
-        <v>365</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN111 2440mm Madera', 'file': 'Cruceta MN111 madera'})</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B78" t="s">
+        <v>367</v>
+      </c>
+      <c r="C78" t="s">
         <v>368</v>
-      </c>
-      <c r="C78" t="s">
-        <v>369</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta central MN111 2440mm Metal', 'file': 'Cruceta MN111 metal'})</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s">
         <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta Y 13,2kV', 'file': 'Cruceta Y 13kV'})</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
         <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Cruceta Y 33kV', 'file': 'Cruceta Y 13kV'})</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s">
         <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Descargador Polimerico Sobretensión 15kV 10kA', 'file': 'Descargadores sobretensión'})</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
         <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Descargador Polimerico Sobretensión 36kV 10kA', 'file': 'Descargadores sobretensión'})</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Estribo doble corto', 'file': 'Estribos'})</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Estribo doble largo', 'file': 'Estribos'})</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
         <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Estribo simple corto', 'file': 'Estribos'})</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Estribo simple largo', 'file': 'Estribos'})</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
         <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Jabalina Copperbond 5/8" x 1.5m', 'file': 'Jabalina Acero Cobre Lisas'})</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
         <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Mensula de Retención PKR20 Curva', 'file': 'Mensula PKR20 Curva'})</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s">
         <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Mensula de Retención PKR20 Recta', 'file': 'Mensula PKR20 Recta'})</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
         <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Mensula de Suspensión PKS30 Curva', 'file': 'Mensula PKS30 Curva'})</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Mensula de Suspensión PKS30 Recta', 'file': 'Mensula PKS30 Recta'})</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B92" t="s">
         <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa Acometida PKD20 4-25mm2', 'file': 'Morsa PKD20'})</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s">
         <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa H°G° RG3 c/ojal 25-50mm2', 'file': 'Morsa RG3'})</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s">
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa H°G° RG4 c/ojal 70-95mm2', 'file': 'Morsa RG4'})</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
         <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa H°G° SG1 c/ojal 22-50mm2', 'file': 'Morsa SG1'})</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s">
         <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa H°G° SG1a c/ojal 70-95mm2', 'file': 'Morsa SG1'})</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
         <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa Retención PRA1000 25-70mm2', 'file': 'Morsa PRA1000'})</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s">
         <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa Retención PRA1500 35-70mm2', 'file': 'Morsa PRA1500'})</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa Retensión MR13 35-120mm2', 'file': 'Morsa MR13'})</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
         <v>Materials.insert({'nombre': 'Morsa Retensión MR14 16-50mm2', 'file': 'Morsa MR14'})</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D132" si="4">"Materials.insert({'nombre': '"&amp;B101&amp;"', 'file': '"&amp;C101&amp;"'})"</f>
         <v>Materials.insert({'nombre': 'Morsa Retensión MR3 120-240mm2', 'file': 'Morsa MR3'})</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morsa Retensión MR3m 50-185mm2', 'file': 'Morsa MR3m'})</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morsa Retensión MR4 185-300mm2', 'file': 'Morsa MR4'})</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morsa Suspensión MS1 16-150mm2', 'file': 'Morsa MS1'})</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Bifilar Al MPM1 6/50mm2', 'file': 'Morseto bifilar'})</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Bifilar Al MPM2 16/95mm2', 'file': 'Morseto bifilar 2'})</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Bifilar Bimetalico MPB1 6/50mm2', 'file': 'Morseto bifilar'})</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Bifilar Bimetalico MPB2 16/95mm2', 'file': 'Morseto bifilar 2'})</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Peine p/CU 25-70mm2', 'file': 'Morseto Peine'})</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Morseto Peine p/CU 35-120mm2', 'file': 'Morseto Peine'})</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
         <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Ojal Badajo MN382', 'file': 'Ojal Badajo'})</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Orbita Anillo J0', 'file': 'Orbita anillo'})</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s">
         <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Orbita Ojal MN154', 'file': 'Orbita Ojal'})</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B114" t="s">
         <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Péndulo 100mm sep L=270m', 'file': 'Pendulos'})</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Péndulo 80mm sep L=220m', 'file': 'Pendulos'})</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
         <v>58</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Péndulo 80mm sep L=260m', 'file': 'Pendulos'})</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Perno MN411 260mm', 'file': 'Perno MN411'})</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Perno MN411b 300m', 'file': 'Perno MN411'})</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Perno MN411CR 360mm', 'file': 'Perno MN411CR'})</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -4258,159 +4384,159 @@
         <v>Materials.insert({'nombre': 'Perno MN414', 'file': 'Perno MN414'})</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
         <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Prolongación MH recta 0° 200mm', 'file': 'Prolongaciones'})</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
       </c>
       <c r="C122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Prolongación MH recta 90° 160mm', 'file': 'Prolongaciones'})</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador a cuchilla Bypass 15kV', 'file': 'Seccionador unipolar a cuchilla bypass'})</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" t="s">
         <v>209</v>
-      </c>
-      <c r="C124" t="s">
-        <v>210</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador a cuchilla Bypass 36kV', 'file': 'Seccionador unipolar a cuchilla bypass'})</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s">
         <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador APR 160A', 'file': 'Seccionador BT tipo APR'})</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s">
         <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador APR 630A', 'file': 'Seccionador BT tipo APR'})</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador fusible tipo XS 15kV', 'file': 'Seccionador Fusible tipo XS'})</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s">
         <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador fusible tipo XS 36kV', 'file': 'Seccionador Fusible tipo XS'})</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s">
         <v>148</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador unipolar a cuchilla 15kV', 'file': 'Seccionador unipolar a cuchilla'})</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
         <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="4"/>
         <v>Materials.insert({'nombre': 'Seccionador unipolar a cuchilla 36kV', 'file': 'Seccionador unipolar a cuchilla'})</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B131" t="s">
         <v>156</v>
@@ -4423,15 +4549,15 @@
         <v>Materials.insert({'nombre': 'Varillas Preformadas', 'file': 'Varillas Preformadas'})</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="4"/>
@@ -4445,4 +4571,275 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="73" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Tconstructivos.insert({'nombre': '"&amp;A2&amp;"', 'file': '"&amp;B2&amp;"'})"</f>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Coplanar Horizontal Madera', 'file': 'LMT13CHM'})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C21" si="0">"Tconstructivos.insert({'nombre': '"&amp;A3&amp;"', 'file': '"&amp;B3&amp;"'})"</f>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Coplanar Horizontal H°A°', 'file': 'LMT13CHH'})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Coplanar Horizontal Madera/H°A°', 'file': 'LMT13CHMH'})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Canadiense Madera', 'file': 'LMT13CanM'})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Canadiense H°A°', 'file': 'LMT13CanH'})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Canadiense Madera/H°A°', 'file': 'LMT13CanMH'})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Triangular Asim H°A°', 'file': 'LMT13TrianAH'})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Coplanar Vertical H°A°', 'file': 'LMT13CVH'})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Compacta', 'file': 'LMT13Comp'})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 13,2kV Doble Terna H°A°', 'file': 'LMT13DTH'})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Coplanar Horizontal Madera', 'file': 'LMT33CHM'})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Coplanar Horizontal H°A°', 'file': 'LMT33CHH'})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Coplanar Horizontal Madera/H°A°', 'file': 'LMT33CHMH'})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Canadiense Madera', 'file': 'LMT33CanM'})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Canadiense H°A°', 'file': 'LMT33CanH'})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Canadiense Madera/H°A°', 'file': 'LMT33CanMH'})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Triangular Asim H°A°', 'file': 'LMT33TrianAH'})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Coplanar Vertical H°A°', 'file': 'LMT33CVH'})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Compacta', 'file': 'LMT33Comp'})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Tconstructivos.insert({'nombre': 'LMT 33kV Doble Terna H°A°', 'file': 'LMT33DTH'})</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>